--- a/data/trans_bre/P38B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Estudios-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>4.395839345180697</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.876707652200498</v>
+        <v>6.876707652200508</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.05561199636243282</v>
@@ -627,7 +627,7 @@
         <v>0.04940752146021103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07887466959412272</v>
+        <v>0.07887466959412283</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.336250796521915</v>
+        <v>2.289940571446782</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.834908718948807</v>
+        <v>1.822402347152964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.713852192181057</v>
+        <v>3.507897190477633</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.02630239726299347</v>
+        <v>0.02554847388683835</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02028100297507634</v>
+        <v>0.02021666736249682</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04168036577540651</v>
+        <v>0.03963423962772234</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.591593596214137</v>
+        <v>7.381979864449202</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.205452731358069</v>
+        <v>7.214219471456452</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.20017126521783</v>
+        <v>10.87809340077476</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.0882730677675954</v>
+        <v>0.08526445314822374</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0822583159916101</v>
+        <v>0.08288149344815496</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1206004310114975</v>
+        <v>0.1305255021146955</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.626657518074897</v>
+        <v>3.506938729776336</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.415526464517019</v>
+        <v>3.609423961914307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.068817381716767</v>
+        <v>3.099420489958004</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04624211032580629</v>
+        <v>0.04456337154029202</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04226947401600293</v>
+        <v>0.04526670659959145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03913249110138069</v>
+        <v>0.03963701508551805</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.774800004309871</v>
+        <v>8.990537620315573</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.40184739626315</v>
+        <v>8.555945099798114</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.700121863386979</v>
+        <v>8.953199368937428</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1155226851749941</v>
+        <v>0.1179604843083186</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1072908945269383</v>
+        <v>0.1102932724350053</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1159042470572672</v>
+        <v>0.1199590346197247</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>2.184744624313595</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.44490092308555</v>
+        <v>5.444900923085561</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.009799606696285804</v>
@@ -791,7 +791,7 @@
         <v>0.02683559590606409</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06490465266299739</v>
+        <v>0.06490465266299753</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.153514732691965</v>
+        <v>-5.393455382298667</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.67307502067345</v>
+        <v>-2.236576098614307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.603947222685206</v>
+        <v>1.631217579103722</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.05782931937592276</v>
+        <v>-0.06057192752830378</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03099536854950525</v>
+        <v>-0.02652554607684481</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01871885535873049</v>
+        <v>0.01887200154481044</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.834528590422593</v>
+        <v>3.501924285260656</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.861633213408017</v>
+        <v>7.690984952105233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.422473314923536</v>
+        <v>9.728186364384252</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.04381370573343083</v>
+        <v>0.04028849216689467</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08769425521363593</v>
+        <v>0.09708018091588207</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1158731777431291</v>
+        <v>0.1216906626358152</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>5.545142493014355</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.691823568204402</v>
+        <v>6.691823568204391</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.06941505878338904</v>
@@ -873,7 +873,7 @@
         <v>0.06775092680126556</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08364634937335302</v>
+        <v>0.08364634937335289</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.880111021705184</v>
+        <v>3.991735968542649</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.794247615732264</v>
+        <v>3.856690559495823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.481564764258165</v>
+        <v>4.801181057627424</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04657666196824553</v>
+        <v>0.04756962370376555</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04576742129809898</v>
+        <v>0.04652542994151618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05566373571454541</v>
+        <v>0.05874358046314007</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.437766471973408</v>
+        <v>7.477515143538037</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.270273415632444</v>
+        <v>7.27451697647653</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.762224094123447</v>
+        <v>8.750265218400452</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.09145357097423844</v>
+        <v>0.09243577571195111</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09000292256175285</v>
+        <v>0.09068583643485198</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1124385241582808</v>
+        <v>0.1111373697120669</v>
       </c>
     </row>
     <row r="16">
